--- a/data/trans_dic/P54_A_7_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P54_A_7_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -531,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se encuentra preocupada por sufrir saturación de los servicios sanitarios o ya le ha ocurrido</t>
+          <t>Población que se encuentra preocupada por sufrir saturación de los servicios sanitarios o ya le ha ocurrido (tasa de respuesta: 98,23%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -632,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>9,15%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>12,41%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>4,45%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>10,86%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,37%</t>
         </is>
       </c>
     </row>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,31</t>
+          <t>2,28; 21,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,92</t>
+          <t>5,8; 23,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,65</t>
+          <t>0,0; 15,69</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,05</t>
+          <t>5,63; 19,45</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,94</t>
+          <t>0,0; 8,48</t>
         </is>
       </c>
     </row>
@@ -742,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>4,41%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0,59%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>9,63%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0,46%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>7,07%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,53%</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,77</t>
+          <t>1,88; 8,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>0,0; 3,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>5,55; 14,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>0,0; 2,4</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>4,61; 10,47</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>0,0; 1,72</t>
         </is>
       </c>
     </row>
@@ -852,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>4,44%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,25%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,55%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,29%</t>
         </is>
       </c>
     </row>
@@ -905,54 +906,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,02</t>
+          <t>1,55; 8,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>5,07; 13,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,78</t>
+          <t>0,0; 3,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,78</t>
+          <t>0,0; 2,6</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>4,09; 9,89</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>0,0; 1,96</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>0,0; 1,62</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1016,172 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>5,04%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,3%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>9,4%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0,26%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1,03%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>7,35%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,14%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0,68%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2,98; 8,15</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,33</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>6,76; 12,62</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,31</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0,21; 2,64</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>5,66; 9,61</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 0,68</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0,22; 1,61</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
@@ -1072,4 +1191,963 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se encuentra preocupada por sufrir saturación de los servicios sanitarios o ya le ha ocurrido (tasa de respuesta: 98,23%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>8650</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>12994</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>5058</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>21644</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>5058</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2153; 20480</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>6078; 24976</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 17830</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>11209; 38755</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 18071</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>15282</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>2231</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>34882</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1736</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>50164</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>3966</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>6512; 30425</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 11757</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>20118; 54017</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 9035</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>32690; 74255</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 12967</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>12519</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>28879</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>2634</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>1780</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>41399</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>2634</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>1780</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4376; 24945</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>17732; 47526</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 13025</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 8896</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>25847; 62509</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 14790</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 10063</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>36451</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2231</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>76756</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>2634</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>8574</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>113207</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>2634</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>10804</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>21546; 58929</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 10061</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>55259; 103087</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 13333</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1779; 21997</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>87220; 148022</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0; 12899</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>3511; 25542</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>